--- a/earlywarning-pom/Document/test/ESTERE/Unit Test_Rapporto avanzamento non regression test App2.0_CIB.xlsx
+++ b/earlywarning-pom/Document/test/ESTERE/Unit Test_Rapporto avanzamento non regression test App2.0_CIB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilaria.cutano\Desktop\test_no_regressione\cib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.monaco\Desktop\ISP\SorgentiGIT\client-intesa\earlywarning-pom\Document\test\ESTERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
-    <pivotCache cacheId="8" r:id="rId7"/>
+    <pivotCache cacheId="14" r:id="rId6"/>
+    <pivotCache cacheId="17" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="126">
   <si>
     <t>Applicazione</t>
   </si>
@@ -446,15 +446,6 @@
   </si>
   <si>
     <t>accensione AQR Trigger (ex Exception 1)</t>
-  </si>
-  <si>
-    <t>accensione Exception 2</t>
-  </si>
-  <si>
-    <t>accensione Exception 3</t>
-  </si>
-  <si>
-    <t>accensione Exception 4</t>
   </si>
   <si>
     <t>Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0</t>
@@ -596,12 +587,6 @@
     <t>standard (giro notturno)</t>
   </si>
   <si>
-    <t>Totale complessivo</t>
-  </si>
-  <si>
-    <t>Etichette di riga</t>
-  </si>
-  <si>
     <t>BR04</t>
   </si>
   <si>
@@ -612,6 +597,30 @@
   </si>
   <si>
     <t>BR19</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>colore Mix Module</t>
+  </si>
+  <si>
+    <t>accensione Exception 2 - Small Business</t>
+  </si>
+  <si>
+    <t>accensione Exception 3 - Small Business</t>
+  </si>
+  <si>
+    <t>accensione Exception 4 - Small Business</t>
+  </si>
+  <si>
+    <t>accensione Exception 3 - Corporate</t>
+  </si>
+  <si>
+    <t>accensione Exception 5 - Corporate</t>
   </si>
 </sst>
 </file>
@@ -1473,51 +1482,71 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1575,31 +1604,11 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="203">
     <dxf>
@@ -1608,166 +1617,488 @@
       </font>
     </dxf>
     <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color theme="4" tint="0.79998168889431442"/>
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="medium">
-          <color theme="3"/>
-        </left>
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
-          <color theme="3"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
         <left style="medium">
-          <color theme="3"/>
-        </left>
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
-          <color theme="3"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
         <left style="medium">
-          <color theme="3"/>
-        </left>
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
-          <color theme="3"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
         <left style="medium">
-          <color theme="3"/>
-        </left>
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
-          <color theme="3"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
         <left style="medium">
-          <color theme="3"/>
-        </left>
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
-          <color theme="3"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
         <left style="medium">
-          <color theme="3"/>
-        </left>
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
-          <color theme="3"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
         <left style="medium">
-          <color theme="3"/>
-        </left>
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
-          <color theme="3"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
         <top style="medium">
           <color theme="3"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
         <top style="medium">
           <color theme="3"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
         <top style="medium">
           <color theme="3"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
         <top style="medium">
           <color theme="3"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
         <top style="medium">
           <color theme="3"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
         <top style="medium">
           <color theme="3"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
         <top style="medium">
           <color theme="3"/>
         </top>
@@ -1961,36 +2292,30 @@
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color theme="4" tint="0.79998168889431442"/>
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
@@ -2002,45 +2327,429 @@
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <bottom/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -2155,116 +2864,64 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
     </dxf>
     <dxf>
       <border>
@@ -2283,16 +2940,65 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="medium">
           <color theme="3"/>
         </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
         <bottom style="medium">
           <color theme="3"/>
         </bottom>
@@ -2303,12 +3009,6 @@
         <left style="medium">
           <color theme="3"/>
         </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
         <bottom style="medium">
           <color theme="3"/>
         </bottom>
@@ -2319,12 +3019,6 @@
         <left style="medium">
           <color theme="3"/>
         </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
         <bottom style="medium">
           <color theme="3"/>
         </bottom>
@@ -2335,12 +3029,6 @@
         <left style="medium">
           <color theme="3"/>
         </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
         <bottom style="medium">
           <color theme="3"/>
         </bottom>
@@ -2351,12 +3039,6 @@
         <left style="medium">
           <color theme="3"/>
         </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
         <bottom style="medium">
           <color theme="3"/>
         </bottom>
@@ -2367,12 +3049,6 @@
         <left style="medium">
           <color theme="3"/>
         </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
         <bottom style="medium">
           <color theme="3"/>
         </bottom>
@@ -2383,70 +3059,57 @@
         <left style="medium">
           <color theme="3"/>
         </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
     </dxf>
     <dxf>
       <border>
@@ -2634,660 +3297,6 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <bottom/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3951,61 +3960,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42909.554460995372" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="29">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
-  </cacheSource>
-  <cacheFields count="11">
-    <cacheField name="Applicazione" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="74" maxValue="95"/>
-    </cacheField>
-    <cacheField name="Funzioni oggetto del test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Moduli oggetto del test" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Nome del test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Descrizione test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Esito atteso" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Note fornitore" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Stato test" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
-        <s v="Ok"/>
-        <m/>
-        <s v="Da eseguire" u="1"/>
-        <s v="ko" u="1"/>
-        <s v="In esecuzione" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Data consegna" numFmtId="14">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Verifica DSI" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42909.554460995372" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Monaco, Fernando" refreshedDate="42909.60701226852" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="26">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:L1048576" sheet="Lista dei casi di test"/>
   </cacheSource>
@@ -4014,7 +3969,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="74" maxValue="95"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="24"/>
     </cacheField>
     <cacheField name="Funzioni oggetto del test" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -4065,393 +4020,65 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Monaco, Fernando" refreshedDate="42909.60701388889" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="26">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Applicazione" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="24"/>
+    </cacheField>
+    <cacheField name="Funzioni oggetto del test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Moduli oggetto del test" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Nome del test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Descrizione test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Esito atteso" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Note fornitore" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Stato test" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="Ok"/>
+        <m/>
+        <s v="Da eseguire" u="1"/>
+        <s v="ko" u="1"/>
+        <s v="In esecuzione" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Data consegna" numFmtId="14">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Verifica DSI" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="29">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="26">
   <r>
     <s v="EWS App-CIB "/>
-    <n v="74"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="75"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Segment"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="76"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Final Score"/>
-    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
-    <s v="Non ci siano differenze in termine di numero"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="77"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="colore finale"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di colore"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="78"/>
-    <s v="Predictive Model"/>
-    <m/>
-    <s v="colore Client Mispayment Module"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di colore"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="79"/>
-    <s v="Predictive Model"/>
-    <m/>
-    <s v="colore Handling Account Module"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di colore"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="80"/>
-    <s v="Matrix (Connection Node)"/>
-    <m/>
-    <s v="colore matrice primo rischio"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di colore"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="81"/>
-    <s v="Decision List (Input Node)"/>
-    <m/>
-    <s v="accensione AQR Fatal (ex Fast-Track)"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="82"/>
-    <s v="Decision List (Input Node)"/>
-    <m/>
-    <s v="accensione AQR Trigger (ex Exception 1)"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="83"/>
-    <s v="Exception (Connection Node)"/>
-    <m/>
-    <s v="accensione Exception 2"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="84"/>
-    <s v="Exception (Connection Node)"/>
-    <m/>
-    <s v="accensione Exception 3"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="85"/>
-    <s v="Exception (Connection Node)"/>
-    <m/>
-    <s v="accensione Exception 4"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="88"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR01"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="89"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR02"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="90"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR05"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="91"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR06"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="92"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR08"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="93"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR15"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="94"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR16"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="95"/>
-    <s v="Business Rules"/>
-    <m/>
-    <s v="BR18"/>
-    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
-    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
-    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="5,6,19,14,4,15,16"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="29">
-  <r>
-    <s v="EWS App-CIB "/>
-    <n v="74"/>
+    <n v="1"/>
     <s v="Final Score"/>
     <m/>
     <s v="numerosità controparti"/>
@@ -4465,7 +4092,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="75"/>
+    <n v="2"/>
     <s v="Final Score"/>
     <m/>
     <s v="numerosità controparti per Segment"/>
@@ -4479,7 +4106,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="76"/>
+    <n v="3"/>
     <s v="Final Score"/>
     <m/>
     <s v="numerosità controparti per Final Score"/>
@@ -4493,7 +4120,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="77"/>
+    <n v="4"/>
     <s v="Final Score"/>
     <m/>
     <s v="colore finale"/>
@@ -4507,7 +4134,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="78"/>
+    <n v="5"/>
     <s v="Predictive Model"/>
     <m/>
     <s v="colore Client Mispayment Module"/>
@@ -4521,7 +4148,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="79"/>
+    <n v="6"/>
     <s v="Predictive Model"/>
     <m/>
     <s v="colore Handling Account Module"/>
@@ -4535,7 +4162,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="80"/>
+    <n v="7"/>
     <s v="Matrix (Connection Node)"/>
     <m/>
     <s v="colore matrice primo rischio"/>
@@ -4549,7 +4176,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="81"/>
+    <n v="8"/>
     <s v="Decision List (Input Node)"/>
     <m/>
     <s v="accensione AQR Fatal (ex Fast-Track)"/>
@@ -4563,7 +4190,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="82"/>
+    <n v="9"/>
     <s v="Decision List (Input Node)"/>
     <m/>
     <s v="accensione AQR Trigger (ex Exception 1)"/>
@@ -4577,7 +4204,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="83"/>
+    <n v="10"/>
     <s v="Exception (Connection Node)"/>
     <m/>
     <s v="accensione Exception 2"/>
@@ -4591,7 +4218,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="84"/>
+    <n v="11"/>
     <s v="Exception (Connection Node)"/>
     <m/>
     <s v="accensione Exception 3"/>
@@ -4605,7 +4232,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="85"/>
+    <n v="12"/>
     <s v="Exception (Connection Node)"/>
     <m/>
     <s v="accensione Exception 4"/>
@@ -4619,7 +4246,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="88"/>
+    <n v="13"/>
     <s v="Business Rules"/>
     <m/>
     <s v="BR01"/>
@@ -4633,7 +4260,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="89"/>
+    <n v="14"/>
     <s v="Business Rules"/>
     <m/>
     <s v="BR02"/>
@@ -4647,7 +4274,21 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="90"/>
+    <n v="15"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR04"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="16"/>
     <s v="Business Rules"/>
     <m/>
     <s v="BR05"/>
@@ -4661,7 +4302,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="91"/>
+    <n v="17"/>
     <s v="Business Rules"/>
     <m/>
     <s v="BR06"/>
@@ -4675,7 +4316,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="92"/>
+    <n v="18"/>
     <s v="Business Rules"/>
     <m/>
     <s v="BR08"/>
@@ -4689,7 +4330,35 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="93"/>
+    <n v="19"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR09"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="20"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR14"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="21"/>
     <s v="Business Rules"/>
     <m/>
     <s v="BR15"/>
@@ -4703,7 +4372,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="94"/>
+    <n v="22"/>
     <s v="Business Rules"/>
     <m/>
     <s v="BR16"/>
@@ -4717,7 +4386,7 @@
   </r>
   <r>
     <s v="EWS App-CIB "/>
-    <n v="95"/>
+    <n v="23"/>
     <s v="Business Rules"/>
     <m/>
     <s v="BR18"/>
@@ -4730,17 +4399,17 @@
     <x v="0"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <s v="EWS App-CIB "/>
+    <n v="24"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR19"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -4750,90 +4419,6 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="5,6,19,14,4,15,16"/>
     <m/>
     <m/>
     <m/>
@@ -4858,156 +4443,351 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L10:M13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow">
-      <items count="5">
-        <item m="1" x="2"/>
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Conteggio" fld="1" subtotal="count" baseField="11" baseItem="0"/>
-  </dataFields>
-  <formats count="28">
-    <format dxfId="129">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="128">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="127">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="126">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="125">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="124">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="123">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="122">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="11" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="121">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="120">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="119">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="118">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="117">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="116">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="115">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="114">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="113">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="112">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="111">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="110">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="109">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="108">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="107">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="106">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="11" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="105">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="104">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="103">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="102">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="26">
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="1"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="numerosità controparti"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
+    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="2"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="numerosità controparti per Segment"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
+    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="3"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="numerosità controparti per Final Score"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
+    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="4"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="colore finale"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="5"/>
+    <s v="Predictive Model"/>
+    <m/>
+    <s v="colore Client Mispayment Module"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="6"/>
+    <s v="Predictive Model"/>
+    <m/>
+    <s v="colore Handling Account Module"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="7"/>
+    <s v="Matrix (Connection Node)"/>
+    <m/>
+    <s v="colore matrice primo rischio"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="8"/>
+    <s v="Decision List (Input Node)"/>
+    <m/>
+    <s v="accensione AQR Fatal (ex Fast-Track)"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="9"/>
+    <s v="Decision List (Input Node)"/>
+    <m/>
+    <s v="accensione AQR Trigger (ex Exception 1)"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="10"/>
+    <s v="Exception (Connection Node)"/>
+    <m/>
+    <s v="accensione Exception 2"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="11"/>
+    <s v="Exception (Connection Node)"/>
+    <m/>
+    <s v="accensione Exception 3"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="12"/>
+    <s v="Exception (Connection Node)"/>
+    <m/>
+    <s v="accensione Exception 4"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="13"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR01"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="14"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR02"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="15"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR04"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="16"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR05"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="17"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR06"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="18"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR08"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="19"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR09"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="20"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR14"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="21"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR15"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="22"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR16"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="23"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR18"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-CIB "/>
+    <n v="24"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR19"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_CIB)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
   <location ref="B7:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -5052,123 +4832,23 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="44">
-    <format dxfId="173">
+    <format dxfId="145">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="172">
+    <format dxfId="144">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="171">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="170">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="169">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="168">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="167">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="166">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="165">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="164">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="163">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="162">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="161">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="160">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="159">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="158">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="157">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="156">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="155">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="154">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="153">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="152">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="151">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="150">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="149">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="148">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="147">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="146">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="145">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="144">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="143">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="142">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="141">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="140">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="139">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
@@ -5181,31 +4861,131 @@
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="137">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="136">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="136">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
     <format dxfId="135">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="134">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="132">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="131">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="130">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="129">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="128">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="127">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="126">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="125">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="131">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="130">
+    <format dxfId="123">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="122">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="121">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="120">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="119">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="118">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="117">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="116">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="115">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="114">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="113">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="112">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="111">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="110">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="109">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="108">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="107">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="106">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="105">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="104">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="103">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -5218,8 +4998,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H10:I14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -5267,107 +5047,255 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="10" baseItem="0"/>
   </dataFields>
   <formats count="29">
-    <format dxfId="202">
+    <format dxfId="174">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="201">
+    <format dxfId="173">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="200">
+    <format dxfId="172">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="199">
+    <format dxfId="171">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="198">
+    <format dxfId="170">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="197">
+    <format dxfId="169">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="196">
+    <format dxfId="168">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="195">
+    <format dxfId="167">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="194">
+    <format dxfId="166">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="193">
+    <format dxfId="165">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="192">
+    <format dxfId="164">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="191">
+    <format dxfId="163">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="190">
+    <format dxfId="162">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="189">
+    <format dxfId="161">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="188">
+    <format dxfId="160">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="187">
+    <format dxfId="159">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="186">
+    <format dxfId="158">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="185">
+    <format dxfId="157">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="184">
+    <format dxfId="156">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="183">
+    <format dxfId="155">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="182">
+    <format dxfId="154">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="181">
+    <format dxfId="153">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="180">
+    <format dxfId="152">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="179">
+    <format dxfId="151">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="178">
+    <format dxfId="150">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="177">
+    <format dxfId="149">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="176">
+    <format dxfId="148">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="147">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="146">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L10:M13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Conteggio" fld="1" subtotal="count" baseField="11" baseItem="0"/>
+  </dataFields>
+  <formats count="28">
+    <format dxfId="202">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="201">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="200">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="199">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="198">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="197">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="196">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="195">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="194">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="193">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="192">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="191">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="190">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="189">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="188">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="187">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="186">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="185">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="184">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="183">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="182">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="181">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="180">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="179">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="178">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="177">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="176">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
     <format dxfId="175">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="174">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -5381,7 +5309,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6063,80 +5991,80 @@
     </row>
     <row r="24" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="101"/>
       <c r="L24" s="7"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="92"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="104"/>
       <c r="L25" s="7"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="104"/>
       <c r="L26" s="7"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="104"/>
       <c r="L27" s="7"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="95"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="107"/>
       <c r="L28" s="7"/>
       <c r="M28" s="1"/>
     </row>
@@ -6262,158 +6190,158 @@
     </row>
     <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="85"/>
-      <c r="D37" s="86" t="s">
+      <c r="C37" s="93"/>
+      <c r="D37" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
       <c r="L37" s="7"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="86" t="s">
+      <c r="C38" s="93"/>
+      <c r="D38" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
       <c r="L38" s="7"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="86" t="s">
+      <c r="C39" s="93"/>
+      <c r="D39" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
       <c r="L39" s="7"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="86" t="s">
+      <c r="C40" s="93"/>
+      <c r="D40" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
       <c r="L40" s="7"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="85" t="s">
+      <c r="B41" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="86" t="s">
+      <c r="C41" s="93"/>
+      <c r="D41" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
       <c r="L41" s="7"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="85"/>
-      <c r="D42" s="96" t="s">
+      <c r="C42" s="93"/>
+      <c r="D42" s="98" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="97"/>
-      <c r="F42" s="86" t="s">
+      <c r="F42" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86" t="s">
+      <c r="G42" s="94"/>
+      <c r="H42" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
       <c r="L42" s="7"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="85" t="s">
+      <c r="B43" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="85"/>
-      <c r="D43" s="86" t="s">
+      <c r="C43" s="93"/>
+      <c r="D43" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
       <c r="L43" s="7"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="85"/>
-      <c r="D44" s="100">
+      <c r="C44" s="93"/>
+      <c r="D44" s="95">
         <v>42879</v>
       </c>
-      <c r="E44" s="101"/>
+      <c r="E44" s="96"/>
       <c r="F44" s="97"/>
-      <c r="G44" s="86" t="s">
+      <c r="G44" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="100">
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="95">
         <v>42879</v>
       </c>
       <c r="K44" s="97"/>
@@ -6467,35 +6395,35 @@
     </row>
     <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="91"/>
       <c r="L48" s="7"/>
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="99" t="s">
+      <c r="B49" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
+      <c r="K49" s="92"/>
       <c r="L49" s="7"/>
       <c r="M49" s="1"/>
     </row>
@@ -6546,6 +6474,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:K42"/>
     <mergeCell ref="B48:K48"/>
     <mergeCell ref="B49:K49"/>
     <mergeCell ref="B43:C43"/>
@@ -6554,25 +6501,6 @@
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6582,13 +6510,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Foglio2"/>
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6613,38 +6541,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="103" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="109" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="103"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="109"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="62" t="s">
@@ -6692,487 +6620,457 @@
     </row>
     <row r="4" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B4" s="68">
         <v>1</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" s="74"/>
       <c r="E4" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="76" t="s">
-        <v>95</v>
-      </c>
       <c r="G4" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="63" t="s">
         <v>77</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>80</v>
       </c>
       <c r="I4" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="64"/>
-      <c r="K4" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K4" s="63"/>
       <c r="L4" s="64"/>
     </row>
     <row r="5" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" s="68">
         <v>2</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="74"/>
       <c r="E5" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="74" t="s">
-        <v>96</v>
-      </c>
       <c r="G5" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="63" t="s">
         <v>77</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>80</v>
       </c>
       <c r="I5" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J5" s="64"/>
-      <c r="K5" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K5" s="63"/>
       <c r="L5" s="64"/>
     </row>
     <row r="6" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" s="68">
         <v>3</v>
       </c>
       <c r="C6" s="71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="74"/>
       <c r="E6" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="74" t="s">
-        <v>97</v>
-      </c>
       <c r="G6" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="63" t="s">
         <v>77</v>
-      </c>
-      <c r="H6" s="63" t="s">
-        <v>80</v>
       </c>
       <c r="I6" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J6" s="64"/>
-      <c r="K6" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K6" s="63"/>
       <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="68">
         <v>4</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" s="74"/>
       <c r="E7" s="71" t="s">
         <v>64</v>
       </c>
       <c r="F7" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I7" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J7" s="64"/>
-      <c r="K7" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K7" s="63"/>
       <c r="L7" s="64"/>
     </row>
     <row r="8" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8" s="68">
         <v>5</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" s="74"/>
       <c r="E8" s="71" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F8" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I8" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J8" s="64"/>
-      <c r="K8" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K8" s="63"/>
       <c r="L8" s="64"/>
     </row>
     <row r="9" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="68">
         <v>6</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="74"/>
       <c r="E9" s="71" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F9" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G9" s="69" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I9" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J9" s="64"/>
-      <c r="K9" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K9" s="63"/>
       <c r="L9" s="64"/>
     </row>
     <row r="10" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B10" s="68">
         <v>7</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="74"/>
       <c r="E10" s="71" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="F10" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G10" s="69" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H10" s="63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I10" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J10" s="64"/>
-      <c r="K10" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K10" s="63"/>
       <c r="L10" s="64"/>
     </row>
     <row r="11" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B11" s="68">
         <v>8</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D11" s="74"/>
       <c r="E11" s="71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H11" s="63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I11" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="64"/>
-      <c r="K11" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K11" s="63"/>
       <c r="L11" s="64"/>
     </row>
     <row r="12" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B12" s="68">
         <v>9</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" s="74"/>
       <c r="E12" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G12" s="69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I12" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="64"/>
-      <c r="K12" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K12" s="63"/>
       <c r="L12" s="64"/>
     </row>
     <row r="13" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="68">
         <v>10</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D13" s="74"/>
       <c r="E13" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="74" t="s">
-        <v>71</v>
-      </c>
       <c r="G13" s="69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I13" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="64"/>
-      <c r="K13" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K13" s="63"/>
       <c r="L13" s="64"/>
     </row>
     <row r="14" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="68">
         <v>11</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D14" s="74"/>
       <c r="E14" s="71" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="F14" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G14" s="69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I14" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J14" s="64"/>
-      <c r="K14" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K14" s="63"/>
       <c r="L14" s="64"/>
     </row>
     <row r="15" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B15" s="68">
         <v>12</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15" s="74"/>
       <c r="E15" s="71" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="F15" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G15" s="69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J15" s="64"/>
-      <c r="K15" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K15" s="63"/>
       <c r="L15" s="64"/>
     </row>
     <row r="16" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B16" s="68">
         <v>13</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D16" s="74"/>
       <c r="E16" s="71" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F16" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G16" s="69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I16" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J16" s="64"/>
-      <c r="K16" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K16" s="63"/>
       <c r="L16" s="64"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B17" s="68">
         <v>14</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D17" s="74"/>
       <c r="E17" s="71" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="F17" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G17" s="69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H17" s="63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I17" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J17" s="64"/>
-      <c r="K17" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K17" s="63"/>
       <c r="L17" s="64"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" s="68">
         <v>15</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D18" s="74"/>
       <c r="E18" s="71" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F18" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G18" s="69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H18" s="63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I18" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="64"/>
-      <c r="K18" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K18" s="63"/>
       <c r="L18" s="64"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B19" s="68">
         <v>16</v>
@@ -7182,29 +7080,27 @@
       </c>
       <c r="D19" s="74"/>
       <c r="E19" s="71" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F19" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G19" s="69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I19" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J19" s="64"/>
-      <c r="K19" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K19" s="63"/>
       <c r="L19" s="64"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B20" s="68">
         <v>17</v>
@@ -7214,29 +7110,27 @@
       </c>
       <c r="D20" s="74"/>
       <c r="E20" s="71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F20" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G20" s="69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H20" s="63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I20" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="64"/>
-      <c r="K20" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K20" s="63"/>
       <c r="L20" s="64"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B21" s="68">
         <v>18</v>
@@ -7246,29 +7140,27 @@
       </c>
       <c r="D21" s="74"/>
       <c r="E21" s="71" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F21" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G21" s="69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H21" s="63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I21" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="64"/>
-      <c r="K21" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K21" s="63"/>
       <c r="L21" s="64"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" s="68">
         <v>19</v>
@@ -7278,29 +7170,27 @@
       </c>
       <c r="D22" s="74"/>
       <c r="E22" s="71" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="F22" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G22" s="69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H22" s="63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I22" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J22" s="64"/>
-      <c r="K22" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K22" s="63"/>
       <c r="L22" s="64"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" s="68">
         <v>20</v>
@@ -7310,29 +7200,27 @@
       </c>
       <c r="D23" s="74"/>
       <c r="E23" s="71" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="F23" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G23" s="69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H23" s="63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I23" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="64"/>
-      <c r="K23" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K23" s="63"/>
       <c r="L23" s="64"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B24" s="68">
         <v>21</v>
@@ -7342,29 +7230,27 @@
       </c>
       <c r="D24" s="74"/>
       <c r="E24" s="71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G24" s="69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H24" s="63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I24" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J24" s="64"/>
-      <c r="K24" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K24" s="63"/>
       <c r="L24" s="64"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B25" s="68">
         <v>22</v>
@@ -7374,29 +7260,27 @@
       </c>
       <c r="D25" s="74"/>
       <c r="E25" s="71" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="F25" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G25" s="69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H25" s="63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I25" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J25" s="64"/>
-      <c r="K25" s="63" t="s">
-        <v>37</v>
-      </c>
+      <c r="K25" s="63"/>
       <c r="L25" s="64"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B26" s="68">
         <v>23</v>
@@ -7406,59 +7290,145 @@
       </c>
       <c r="D26" s="74"/>
       <c r="E26" s="71" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="F26" s="74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G26" s="69" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H26" s="63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I26" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J26" s="64"/>
-      <c r="K26" s="63" t="s">
+      <c r="K26" s="63"/>
+      <c r="L26" s="64"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="68">
+        <v>24</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="74"/>
+      <c r="E27" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="L26" s="64"/>
-    </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="121" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="77">
-        <v>24</v>
-      </c>
-      <c r="C27" s="122" t="s">
+      <c r="J27" s="64"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="68">
+        <v>25</v>
+      </c>
+      <c r="C28" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="122" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="123" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="125" t="s">
+      <c r="D28" s="74"/>
+      <c r="E28" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="126"/>
-      <c r="K27" s="121" t="s">
+      <c r="J28" s="64"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="64"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="68">
+        <v>26</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="74"/>
+      <c r="E29" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="L27" s="126"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="64"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="77">
+        <v>27</v>
+      </c>
+      <c r="C30" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="87"/>
+      <c r="E30" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="90"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="90"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:K2"/>
@@ -7466,7 +7436,7 @@
     <mergeCell ref="L1:L2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D30">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1048576">
@@ -7500,11 +7470,11 @@
     <col min="5" max="5" width="7.21875" style="13" customWidth="1"/>
     <col min="6" max="6" width="1.44140625" style="14" customWidth="1"/>
     <col min="7" max="7" width="7.44140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="13" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="13" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" style="13" customWidth="1"/>
     <col min="11" max="11" width="3.21875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="13" customWidth="1"/>
     <col min="13" max="13" width="9.5546875" style="13" customWidth="1"/>
     <col min="14" max="14" width="11.44140625" style="13" customWidth="1"/>
     <col min="15" max="15" width="6.21875" style="13" customWidth="1"/>
@@ -7513,40 +7483,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="112"/>
-      <c r="G1" s="110" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118"/>
+      <c r="G1" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="112"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="118"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="115"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="121"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
@@ -7588,16 +7558,16 @@
     </row>
     <row r="5" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="18"/>
       <c r="G5" s="20"/>
       <c r="H5" s="47">
         <f>GETPIVOTDATA("ID",$B$7)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I5" s="48">
         <f>COUNTIF('Lista dei casi di test'!L:L,"Coerente")+COUNTIF('Lista dei casi di test'!L:L,"Non coerente")</f>
@@ -7615,9 +7585,9 @@
     </row>
     <row r="6" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="18"/>
       <c r="G6" s="20"/>
       <c r="H6" s="42"/>
@@ -7663,17 +7633,17 @@
       </c>
       <c r="E8" s="18"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="104" t="s">
+      <c r="H8" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="112"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="104" t="s">
+      <c r="L8" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="105"/>
-      <c r="N8" s="106"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="112"/>
       <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7682,7 +7652,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="38">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9" s="29">
         <f>GETPIVOTDATA("ID",$B$7,"Stato test","Ok")/GETPIVOTDATA("ID",$B$7)</f>
@@ -7690,22 +7660,22 @@
       </c>
       <c r="E9" s="18"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="124"/>
       <c r="K9" s="24"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="118"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="124"/>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
       <c r="B10" s="52" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" s="39">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="18"/>
@@ -7768,7 +7738,7 @@
         <v>37</v>
       </c>
       <c r="I12" s="35">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J12" s="29">
         <f>GETPIVOTDATA("ID",$H$10,"Verifica DSI","Ok")/GETPIVOTDATA("ID",$H$10)</f>
@@ -7802,7 +7772,7 @@
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="56" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M13" s="36"/>
       <c r="N13" s="26"/>
@@ -7816,10 +7786,10 @@
       <c r="E14" s="18"/>
       <c r="G14" s="20"/>
       <c r="H14" s="59" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I14" s="36">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="27"/>
@@ -8105,18 +8075,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="120" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="120"/>
+      <c r="B2" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="126"/>
       <c r="D2" s="80" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E2" s="81" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F2" s="81" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8124,13 +8094,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F3" s="82"/>
     </row>
@@ -8139,16 +8109,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="125" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="119" t="s">
-        <v>109</v>
-      </c>
       <c r="F4" s="82" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -8156,12 +8126,12 @@
         <v>3</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
+        <v>84</v>
+      </c>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="82" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -8169,14 +8139,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E6" s="84"/>
       <c r="F6" s="82" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -8184,10 +8154,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E7" s="84"/>
       <c r="F7" s="82"/>
@@ -8197,19 +8167,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D8" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="84" t="s">
         <v>112</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>115</v>
       </c>
       <c r="F8" s="82"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" s="83" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -8245,12 +8215,12 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C2" s="79" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="3:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C3" s="79" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="3:3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
@@ -8266,17 +8236,17 @@
     <row r="14" spans="3:3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="15" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C15" s="79" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C32" s="79" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C40" s="79" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -8287,6 +8257,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -8400,15 +8379,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -8416,6 +8386,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A56FCF-C5F4-4BE8-A3D4-155BB73757FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4302E80F-5264-4B4D-ABB5-B564D1D5A2D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8427,14 +8405,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A56FCF-C5F4-4BE8-A3D4-155BB73757FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
